--- a/config_12.01/permission_server_config.xlsx
+++ b/config_12.01/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="1935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4488" uniqueCount="1960">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8991,11 +8991,111 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>xyxxl_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_cqg_viplimit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱罐VIP1限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年11月30日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是官方渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1及以上的用户可进行领取</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是cpl玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是cpl玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>是冲金鸡玩家才可游戏</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>xyxxl_level</t>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是CPl渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1及以上的用户可进行领取</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -9003,7 +9103,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao",</t>
+    <t>Lv9开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9808,11 +9908,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q427"/>
+  <dimension ref="A1:Q429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C360" sqref="C360"/>
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C361" sqref="C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13813,13 +13913,13 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="27" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B360" s="27" t="s">
         <v>1930</v>
       </c>
       <c r="C360" s="3">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -14329,6 +14429,17 @@
       </c>
       <c r="C427" s="9">
         <v>26</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" s="27" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B429" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C429" s="3">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -14344,10 +14455,10 @@
   <dimension ref="A1:O342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="A335" sqref="A335:XFD336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25652,30 +25763,72 @@
       </c>
     </row>
     <row r="335" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="17"/>
-      <c r="B335" s="17"/>
-      <c r="C335" s="16"/>
-      <c r="D335" s="16"/>
+      <c r="A335" s="26">
+        <v>334</v>
+      </c>
+      <c r="B335" s="26">
+        <v>1</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D335" s="16" t="s">
+        <v>1936</v>
+      </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
-      <c r="G335" s="17"/>
-      <c r="H335" s="17"/>
-      <c r="J335" s="17"/>
-      <c r="K335" s="17"/>
-      <c r="L335" s="16"/>
+      <c r="G335" s="26">
+        <v>340</v>
+      </c>
+      <c r="H335" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I335" t="b">
+        <v>1</v>
+      </c>
+      <c r="J335" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="K335" s="17">
+        <v>1606176000</v>
+      </c>
+      <c r="L335" s="16" t="s">
+        <v>1937</v>
+      </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="17"/>
-      <c r="B336" s="17"/>
-      <c r="C336" s="16"/>
-      <c r="D336" s="16"/>
+      <c r="A336" s="17">
+        <v>335</v>
+      </c>
+      <c r="B336" s="17">
+        <v>1</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D336" s="16" t="s">
+        <v>1939</v>
+      </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
-      <c r="G336" s="17"/>
-      <c r="H336" s="17"/>
-      <c r="J336" s="17"/>
-      <c r="K336" s="17"/>
-      <c r="L336" s="16"/>
+      <c r="G336" s="17">
+        <v>341</v>
+      </c>
+      <c r="H336" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I336" t="b">
+        <v>1</v>
+      </c>
+      <c r="J336" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="K336" s="17">
+        <v>1606176000</v>
+      </c>
+      <c r="L336" s="16" t="s">
+        <v>1937</v>
+      </c>
     </row>
     <row r="342" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="17"/>
@@ -25701,13 +25854,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I864"/>
+  <dimension ref="A1:I868"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C842" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D858" sqref="D858"/>
+      <selection pane="bottomRight" activeCell="A856" sqref="A856:A868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45453,119 +45606,119 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A856" s="8">
         <v>855</v>
       </c>
-      <c r="B856" s="9">
+      <c r="B856" s="8">
         <v>340</v>
       </c>
-      <c r="C856" s="53" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D856" s="9">
-        <v>1</v>
-      </c>
-      <c r="E856" s="9">
-        <v>3</v>
-      </c>
-      <c r="F856" s="9">
+      <c r="C856" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D856" s="10" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E856" s="8">
+        <v>5</v>
+      </c>
+      <c r="F856" s="8">
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A857" s="8">
         <v>856</v>
       </c>
-      <c r="B857" s="9">
-        <v>340</v>
+      <c r="B857" s="8">
+        <v>341</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D857" s="15" t="s">
-        <v>1866</v>
+        <v>1175</v>
+      </c>
+      <c r="D857" s="10" t="s">
+        <v>1941</v>
       </c>
       <c r="E857" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F857" s="8">
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A858" s="8">
         <v>857</v>
       </c>
-      <c r="B858" s="9">
-        <v>340</v>
-      </c>
-      <c r="C858" s="53" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D858" s="9">
-        <v>9</v>
-      </c>
-      <c r="E858" s="9">
-        <v>3</v>
-      </c>
-      <c r="F858" s="9">
-        <v>2</v>
-      </c>
-      <c r="G858" s="10" t="s">
-        <v>1933</v>
+      <c r="B858" s="14">
+        <v>342</v>
+      </c>
+      <c r="C858" s="15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D858" s="15" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E858" s="14">
+        <v>2</v>
+      </c>
+      <c r="F858" s="14">
+        <v>1</v>
+      </c>
+      <c r="G858" s="15" t="s">
+        <v>1955</v>
       </c>
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A859" s="8">
         <v>858</v>
       </c>
-      <c r="B859" s="9">
-        <v>340</v>
+      <c r="B859" s="14">
+        <v>342</v>
       </c>
       <c r="C859" s="10" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D859" s="15" t="s">
-        <v>1866</v>
+        <v>1046</v>
+      </c>
+      <c r="D859" s="10" t="s">
+        <v>1951</v>
       </c>
       <c r="E859" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F859" s="8">
         <v>2</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="860" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A860" s="8">
         <v>859</v>
       </c>
       <c r="B860" s="14">
-        <v>340</v>
-      </c>
-      <c r="C860" s="15" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D860" s="15" t="s">
-        <v>1866</v>
-      </c>
-      <c r="E860" s="14">
-        <v>2</v>
-      </c>
-      <c r="F860" s="14">
+        <v>342</v>
+      </c>
+      <c r="C860" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D860" s="10" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E860" s="8">
+        <v>2</v>
+      </c>
+      <c r="F860" s="8">
         <v>3</v>
       </c>
-      <c r="G860" s="15" t="s">
-        <v>1540</v>
+      <c r="G860" s="10" t="s">
+        <v>1944</v>
       </c>
     </row>
     <row r="861" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -45573,13 +45726,13 @@
         <v>860</v>
       </c>
       <c r="B861" s="14">
-        <v>340</v>
-      </c>
-      <c r="C861" s="15" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D861" s="15" t="s">
-        <v>1864</v>
+        <v>342</v>
+      </c>
+      <c r="C861" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D861" s="14" t="s">
+        <v>1941</v>
       </c>
       <c r="E861" s="14">
         <v>2</v>
@@ -45588,18 +45741,169 @@
         <v>4</v>
       </c>
       <c r="G861" s="15" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="862" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G862" s="10"/>
-    </row>
-    <row r="863" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D863" s="10"/>
-      <c r="G863" s="10"/>
-    </row>
-    <row r="864" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C864" s="10"/>
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A862" s="8">
+        <v>861</v>
+      </c>
+      <c r="B862" s="9">
+        <v>342</v>
+      </c>
+      <c r="C862" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="D862" s="9">
+        <v>1</v>
+      </c>
+      <c r="E862" s="9">
+        <v>3</v>
+      </c>
+      <c r="F862" s="9">
+        <v>4</v>
+      </c>
+      <c r="G862" s="53" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A863" s="8">
+        <v>862</v>
+      </c>
+      <c r="B863" s="9">
+        <v>343</v>
+      </c>
+      <c r="C863" s="53" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D863" s="9">
+        <v>1</v>
+      </c>
+      <c r="E863" s="9">
+        <v>3</v>
+      </c>
+      <c r="F863" s="9">
+        <v>1</v>
+      </c>
+      <c r="G863" s="10" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A864" s="8">
+        <v>863</v>
+      </c>
+      <c r="B864" s="9">
+        <v>343</v>
+      </c>
+      <c r="C864" s="10" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D864" s="15" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E864" s="8">
+        <v>5</v>
+      </c>
+      <c r="F864" s="8">
+        <v>1</v>
+      </c>
+      <c r="G864" s="10" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A865" s="8">
+        <v>864</v>
+      </c>
+      <c r="B865" s="9">
+        <v>343</v>
+      </c>
+      <c r="C865" s="53" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D865" s="9">
+        <v>9</v>
+      </c>
+      <c r="E865" s="9">
+        <v>3</v>
+      </c>
+      <c r="F865" s="9">
+        <v>2</v>
+      </c>
+      <c r="G865" s="10" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A866" s="8">
+        <v>865</v>
+      </c>
+      <c r="B866" s="9">
+        <v>343</v>
+      </c>
+      <c r="C866" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D866" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E866" s="8">
+        <v>5</v>
+      </c>
+      <c r="F866" s="8">
+        <v>2</v>
+      </c>
+      <c r="G866" s="10" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A867" s="8">
+        <v>866</v>
+      </c>
+      <c r="B867" s="14">
+        <v>343</v>
+      </c>
+      <c r="C867" s="15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D867" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E867" s="14">
+        <v>2</v>
+      </c>
+      <c r="F867" s="14">
+        <v>3</v>
+      </c>
+      <c r="G867" s="15" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A868" s="8">
+        <v>867</v>
+      </c>
+      <c r="B868" s="14">
+        <v>343</v>
+      </c>
+      <c r="C868" s="15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D868" s="15" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E868" s="14">
+        <v>2</v>
+      </c>
+      <c r="F868" s="14">
+        <v>4</v>
+      </c>
+      <c r="G868" s="15" t="s">
+        <v>1950</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -45613,7 +45917,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -45823,7 +46127,7 @@
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="E9">
         <v>2</v>

--- a/config_12.01/permission_server_config.xlsx
+++ b/config_12.01/permission_server_config.xlsx
@@ -22,12 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">act_permission!$A$1:$N$224</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$A$1:$I$502</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="1931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="1934">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -6392,10 +6392,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>弹弹乐 V1orLV5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>水果消消乐  V1orLV8</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8989,6 +8985,22 @@
   </si>
   <si>
     <t>西游消消乐下注192万鲸币</t>
+  </si>
+  <si>
+    <t>弹弹乐 V1orLV5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游消消乐  V1orLV9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyxxl_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9792,11 +9804,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q426"/>
+  <dimension ref="A1:Q427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C414" sqref="C414:C426"/>
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C360" sqref="C360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10983,7 +10995,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -11001,7 +11013,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11019,7 +11031,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -11037,7 +11049,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -11055,7 +11067,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C74" s="57">
         <v>22</v>
@@ -11069,7 +11081,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C75" s="57">
         <v>22</v>
@@ -11084,7 +11096,7 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C76" s="57">
         <v>22</v>
@@ -11099,7 +11111,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C77" s="57">
         <v>23</v>
@@ -11114,7 +11126,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C78" s="9">
         <v>23</v>
@@ -11129,7 +11141,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C79" s="9">
         <v>24</v>
@@ -11144,7 +11156,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C80" s="9">
         <v>25</v>
@@ -11159,7 +11171,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -11174,7 +11186,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -11752,7 +11764,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="53" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B142" s="53" t="s">
         <v>249</v>
@@ -11873,10 +11885,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="61" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C154" s="14">
         <v>267</v>
@@ -11884,10 +11896,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="61" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C155" s="14">
         <v>268</v>
@@ -11895,10 +11907,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="61" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C156" s="14">
         <v>269</v>
@@ -11906,10 +11918,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="61" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C157" s="14">
         <v>270</v>
@@ -11917,10 +11929,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="61" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C158" s="14">
         <v>271</v>
@@ -11928,10 +11940,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="61" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C159" s="14">
         <v>272</v>
@@ -11939,10 +11951,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="61" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C160" s="14">
         <v>273</v>
@@ -11950,10 +11962,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="61" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C161" s="14">
         <v>274</v>
@@ -11961,10 +11973,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="61" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C162" s="14">
         <v>275</v>
@@ -11972,10 +11984,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="61" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C163" s="14">
         <v>276</v>
@@ -11983,10 +11995,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="61" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C164" s="14">
         <v>277</v>
@@ -11994,10 +12006,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="61" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C165" s="14">
         <v>278</v>
@@ -12005,10 +12017,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="61" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C166" s="14">
         <v>279</v>
@@ -12154,7 +12166,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="34" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -12339,7 +12351,7 @@
     </row>
     <row r="200" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="60" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>327</v>
@@ -12369,7 +12381,7 @@
     </row>
     <row r="202" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="64" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B202" s="64" t="s">
         <v>332</v>
@@ -12384,7 +12396,7 @@
     </row>
     <row r="203" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="34" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B203" s="34" t="s">
         <v>334</v>
@@ -12399,7 +12411,7 @@
     </row>
     <row r="204" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="60" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B204" s="60" t="s">
         <v>1186</v>
@@ -12653,7 +12665,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>374</v>
@@ -13723,7 +13735,7 @@
         <v>1392</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>1399</v>
+        <v>1930</v>
       </c>
       <c r="C353" s="3">
         <v>226</v>
@@ -13734,7 +13746,7 @@
         <v>1393</v>
       </c>
       <c r="B354" s="27" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C354" s="3">
         <v>227</v>
@@ -13745,7 +13757,7 @@
         <v>1394</v>
       </c>
       <c r="B355" s="27" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C355" s="3">
         <v>228</v>
@@ -13756,7 +13768,7 @@
         <v>1396</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C356" s="3">
         <v>229</v>
@@ -13767,7 +13779,7 @@
         <v>1398</v>
       </c>
       <c r="B357" s="27" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C357" s="3">
         <v>230</v>
@@ -13778,7 +13790,7 @@
         <v>1397</v>
       </c>
       <c r="B358" s="27" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C358" s="3">
         <v>231</v>
@@ -13786,318 +13798,318 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="27" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B359" s="27" t="s">
         <v>1861</v>
-      </c>
-      <c r="B359" s="27" t="s">
-        <v>1862</v>
       </c>
       <c r="C359" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="27" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B361" s="27" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C361" s="3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="27" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B360" s="27" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C360" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="27" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B362" s="27" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C362" s="3">
         <v>91</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" s="27" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B363" s="34" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C363" s="3">
-        <v>332</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="27" t="s">
-        <v>1475</v>
+        <v>1821</v>
       </c>
       <c r="B364" s="34" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="C364" s="3">
-        <v>242</v>
+        <v>332</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="27" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B365" s="27" t="s">
-        <v>1469</v>
+        <v>1474</v>
+      </c>
+      <c r="B365" s="34" t="s">
+        <v>1819</v>
       </c>
       <c r="C365" s="3">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="27" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B366" s="27" t="s">
-        <v>1821</v>
+        <v>1468</v>
       </c>
       <c r="C366" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="27" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B367" s="27" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C367" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="3" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B369" s="27" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C369" s="3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B370" s="27" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C370" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="27" t="s">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="27" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B372" s="27" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C372" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C373" s="3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="27" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B375" s="27" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C375" s="3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C377" s="3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="27" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B379" s="27" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C379" s="3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="27" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B381" s="27" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C381" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="27" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B383" s="27" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C383" s="3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="27" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B385" s="27" t="s">
         <v>1757</v>
       </c>
-      <c r="B371" s="27" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C371" s="3">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C372" s="3">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="27" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B374" s="27" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C374" s="3">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" s="3" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C376" s="3">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" s="27" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B378" s="27" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C378" s="3">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" s="27" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B380" s="27" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C380" s="3">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" s="27" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B382" s="27" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C382" s="3">
+      <c r="C385" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="27" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B387" s="27" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C387" s="3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="27" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C389" s="3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" s="27" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B391" s="27" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C391" s="3">
         <v>319</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" s="27" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B384" s="27" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C384" s="3">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386" s="27" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B386" s="27" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C386" s="3">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388" s="27" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C388" s="3">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390" s="27" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B390" s="27" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C390" s="3">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392" s="34" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B392" s="34" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C392" s="8">
-        <v>127</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="34" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="C393" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="34" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="C394" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="34" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="C395" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="34" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="C396" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="34" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="C397" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C398" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="34" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="C399" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="34" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B400" s="34" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="C400" s="8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="34" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B401" s="34" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C401" s="8">
         <v>135</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402" s="27" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B402" s="27" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C402" s="3">
-        <v>333</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="27" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="B403" s="27" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -14105,10 +14117,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="27" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="B404" s="27" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="C404" s="3">
         <v>333</v>
@@ -14116,10 +14128,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="27" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="B405" s="27" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="C405" s="3">
         <v>333</v>
@@ -14127,101 +14139,101 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="27" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="B406" s="27" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="C406" s="3">
         <v>333</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" s="27" t="s">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="27" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B407" s="27" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C407" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="27" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B409" s="27" t="s">
         <v>1845</v>
       </c>
-      <c r="B408" s="27" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C408" s="3">
+      <c r="C409" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410" s="27" t="s">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" s="27" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B411" s="27" t="s">
         <v>1896</v>
       </c>
-      <c r="B410" s="27" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C410" s="3">
+      <c r="C411" s="3">
         <v>339</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412" s="3" t="s">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B413" s="3" t="s">
         <v>1902</v>
       </c>
-      <c r="B412" s="3" t="s">
-        <v>1903</v>
-      </c>
-      <c r="C412" s="3">
+      <c r="C413" s="3">
         <v>326</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A414" s="34" t="s">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" s="34" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>1905</v>
-      </c>
-      <c r="B414" s="10" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C414" s="9"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A415" s="18" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>1908</v>
       </c>
       <c r="C415" s="9"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="18" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="C416" s="9"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="18" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="C417" s="9"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="18" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>1914</v>
-      </c>
-      <c r="C418" s="57">
-        <v>22</v>
-      </c>
+        <v>1911</v>
+      </c>
+      <c r="C418" s="9"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="18" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="C419" s="57">
         <v>22</v>
@@ -14229,10 +14241,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="18" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="C420" s="57">
         <v>22</v>
@@ -14240,67 +14252,78 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="18" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="C421" s="57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="18" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C422" s="9">
+        <v>1919</v>
+      </c>
+      <c r="C422" s="57">
         <v>23</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="18" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="C423" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="18" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="C424" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="18" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="C425" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="18" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B426" s="10" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C426" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" s="18" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B427" s="10" t="s">
         <v>1929</v>
       </c>
-      <c r="B426" s="10" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C426" s="9">
+      <c r="C427" s="9">
         <v>26</v>
       </c>
     </row>
@@ -14499,10 +14522,10 @@
         <v>1050</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -14658,7 +14681,7 @@
         <v>469</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1181</v>
@@ -20370,7 +20393,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>774</v>
@@ -21053,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D196" s="30" t="s">
         <v>812</v>
@@ -21442,7 +21465,7 @@
         <v>0</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D208" s="30" t="s">
         <v>827</v>
@@ -22418,7 +22441,7 @@
         <v>1</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D237" s="79" t="s">
         <v>1206</v>
@@ -22520,7 +22543,7 @@
         <v>1</v>
       </c>
       <c r="C240" s="86" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D240" s="86" t="s">
         <v>1225</v>
@@ -22543,7 +22566,7 @@
         <v>1592263800</v>
       </c>
       <c r="L240" s="86" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="241" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
@@ -22860,10 +22883,10 @@
         <v>1</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D250" s="92" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G250" s="26">
         <v>232</v>
@@ -22875,13 +22898,13 @@
         <v>1</v>
       </c>
       <c r="J250" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K250" s="26">
         <v>1588028400</v>
       </c>
       <c r="L250" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -22892,10 +22915,10 @@
         <v>1</v>
       </c>
       <c r="C251" s="30" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D251" s="92" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G251" s="26">
         <v>233</v>
@@ -22907,13 +22930,13 @@
         <v>1</v>
       </c>
       <c r="J251" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K251" s="26">
         <v>1588028400</v>
       </c>
       <c r="L251" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -22924,10 +22947,10 @@
         <v>1</v>
       </c>
       <c r="C252" s="30" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D252" s="92" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G252" s="26">
         <v>234</v>
@@ -22939,13 +22962,13 @@
         <v>1</v>
       </c>
       <c r="J252" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K252" s="26">
         <v>1588028400</v>
       </c>
       <c r="L252" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -22956,10 +22979,10 @@
         <v>1</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D253" s="92" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G253" s="26">
         <v>235</v>
@@ -22971,13 +22994,13 @@
         <v>1</v>
       </c>
       <c r="J253" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K253" s="26">
         <v>1588028400</v>
       </c>
       <c r="L253" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -22988,10 +23011,10 @@
         <v>1</v>
       </c>
       <c r="C254" s="30" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D254" s="92" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G254" s="26">
         <v>236</v>
@@ -23003,13 +23026,13 @@
         <v>1</v>
       </c>
       <c r="J254" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K254" s="26">
         <v>1588028400</v>
       </c>
       <c r="L254" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -23020,10 +23043,10 @@
         <v>1</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D255" s="92" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G255" s="26">
         <v>237</v>
@@ -23035,13 +23058,13 @@
         <v>1</v>
       </c>
       <c r="J255" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K255" s="26">
         <v>1588028400</v>
       </c>
       <c r="L255" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -23052,10 +23075,10 @@
         <v>1</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D256" s="92" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G256" s="26">
         <v>238</v>
@@ -23067,13 +23090,13 @@
         <v>1</v>
       </c>
       <c r="J256" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K256" s="26">
         <v>1588028400</v>
       </c>
       <c r="L256" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -23084,10 +23107,10 @@
         <v>1</v>
       </c>
       <c r="C257" s="30" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D257" s="92" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G257" s="26">
         <v>239</v>
@@ -23099,13 +23122,13 @@
         <v>1</v>
       </c>
       <c r="J257" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K257" s="26">
         <v>1588028400</v>
       </c>
       <c r="L257" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -23116,10 +23139,10 @@
         <v>1</v>
       </c>
       <c r="C258" s="30" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D258" s="92" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G258" s="26">
         <v>240</v>
@@ -23131,13 +23154,13 @@
         <v>1</v>
       </c>
       <c r="J258" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K258" s="26">
         <v>1588028400</v>
       </c>
       <c r="L258" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -23148,10 +23171,10 @@
         <v>1</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D259" s="92" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G259" s="26">
         <v>241</v>
@@ -23163,13 +23186,13 @@
         <v>1</v>
       </c>
       <c r="J259" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K259" s="26">
         <v>1588028400</v>
       </c>
       <c r="L259" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -23180,10 +23203,10 @@
         <v>1</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G260" s="26">
         <v>246</v>
@@ -23201,7 +23224,7 @@
         <v>1597075200</v>
       </c>
       <c r="L260" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -23212,10 +23235,10 @@
         <v>1</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G261" s="26">
         <v>247</v>
@@ -23227,13 +23250,13 @@
         <v>1</v>
       </c>
       <c r="J261" s="16" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="K261" s="17">
         <v>1597075200</v>
       </c>
       <c r="L261" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -23244,10 +23267,10 @@
         <v>1</v>
       </c>
       <c r="C262" s="30" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D262" s="16" t="s">
         <v>1500</v>
-      </c>
-      <c r="D262" s="16" t="s">
-        <v>1501</v>
       </c>
       <c r="G262" s="26">
         <v>245</v>
@@ -23259,13 +23282,13 @@
         <v>1</v>
       </c>
       <c r="J262" s="16" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="K262" s="17">
         <v>1597075200</v>
       </c>
       <c r="L262" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -23276,10 +23299,10 @@
         <v>1</v>
       </c>
       <c r="C263" s="53" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D263" s="16" t="s">
         <v>1502</v>
-      </c>
-      <c r="D263" s="16" t="s">
-        <v>1503</v>
       </c>
       <c r="G263" s="26">
         <v>245</v>
@@ -23297,7 +23320,7 @@
         <v>1597075200</v>
       </c>
       <c r="L263" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -23308,10 +23331,10 @@
         <v>1</v>
       </c>
       <c r="C264" s="30" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D264" s="53" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G264" s="26">
         <v>250</v>
@@ -23329,7 +23352,7 @@
         <v>1597707000</v>
       </c>
       <c r="L264" s="26" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -23340,10 +23363,10 @@
         <v>1</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D265" s="53" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G265" s="26">
         <v>251</v>
@@ -23361,7 +23384,7 @@
         <v>1597707000</v>
       </c>
       <c r="L265" s="26" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -23372,10 +23395,10 @@
         <v>1</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G266" s="26">
         <v>252</v>
@@ -23393,7 +23416,7 @@
         <v>1597680000</v>
       </c>
       <c r="L266" s="26" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -23404,10 +23427,10 @@
         <v>1</v>
       </c>
       <c r="C267" s="30" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D267" s="30" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="G267" s="26">
         <v>253</v>
@@ -23425,7 +23448,7 @@
         <v>1597707000</v>
       </c>
       <c r="L267" s="26" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -23436,10 +23459,10 @@
         <v>1</v>
       </c>
       <c r="C268" s="30" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D268" s="30" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G268" s="26">
         <v>254</v>
@@ -23457,7 +23480,7 @@
         <v>1597707000</v>
       </c>
       <c r="L268" s="26" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -23468,10 +23491,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="30" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D269" s="30" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G269" s="26">
         <v>255</v>
@@ -23489,7 +23512,7 @@
         <v>1597707000</v>
       </c>
       <c r="L269" s="26" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="270" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23500,10 +23523,10 @@
         <v>1</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E270" s="17"/>
       <c r="F270" s="17"/>
@@ -23517,13 +23540,13 @@
         <v>1</v>
       </c>
       <c r="J270" s="16" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="K270" s="17">
         <v>1598311800</v>
       </c>
       <c r="L270" s="16" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="271" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23534,10 +23557,10 @@
         <v>1</v>
       </c>
       <c r="C271" s="16" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D271" s="16" t="s">
         <v>1545</v>
-      </c>
-      <c r="D271" s="16" t="s">
-        <v>1546</v>
       </c>
       <c r="E271" s="17"/>
       <c r="F271" s="17"/>
@@ -23551,13 +23574,13 @@
         <v>1</v>
       </c>
       <c r="J271" s="16" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="K271" s="17">
         <v>1598311800</v>
       </c>
       <c r="L271" s="16" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="272" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23568,10 +23591,10 @@
         <v>1</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E272" s="17"/>
       <c r="F272" s="17"/>
@@ -23591,7 +23614,7 @@
         <v>1598311800</v>
       </c>
       <c r="L272" s="16" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="273" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23602,10 +23625,10 @@
         <v>1</v>
       </c>
       <c r="C273" s="17" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D273" s="17" t="s">
         <v>1550</v>
-      </c>
-      <c r="D273" s="17" t="s">
-        <v>1551</v>
       </c>
       <c r="E273" s="17"/>
       <c r="F273" s="17"/>
@@ -23625,7 +23648,7 @@
         <v>1598311800</v>
       </c>
       <c r="L273" s="16" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="274" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23636,10 +23659,10 @@
         <v>1</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E274" s="17"/>
       <c r="F274" s="17"/>
@@ -23659,7 +23682,7 @@
         <v>1598311800</v>
       </c>
       <c r="L274" s="16" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="275" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23670,10 +23693,10 @@
         <v>1</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E275" s="17"/>
       <c r="F275" s="17"/>
@@ -23693,7 +23716,7 @@
         <v>1598284800</v>
       </c>
       <c r="L275" s="16" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="276" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23704,10 +23727,10 @@
         <v>1</v>
       </c>
       <c r="C276" s="16" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D276" s="16" t="s">
         <v>1555</v>
-      </c>
-      <c r="D276" s="16" t="s">
-        <v>1556</v>
       </c>
       <c r="E276" s="17"/>
       <c r="F276" s="17"/>
@@ -23727,7 +23750,7 @@
         <v>1598284800</v>
       </c>
       <c r="L276" s="16" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="277" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23738,10 +23761,10 @@
         <v>1</v>
       </c>
       <c r="C277" s="16" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D277" s="16" t="s">
         <v>1596</v>
-      </c>
-      <c r="D277" s="16" t="s">
-        <v>1597</v>
       </c>
       <c r="E277" s="17"/>
       <c r="F277" s="17"/>
@@ -23755,13 +23778,13 @@
         <v>1</v>
       </c>
       <c r="J277" s="16" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="K277" s="17">
         <v>1598916600</v>
       </c>
       <c r="L277" s="16" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="278" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23772,10 +23795,10 @@
         <v>1</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E278" s="17"/>
       <c r="F278" s="17"/>
@@ -23795,7 +23818,7 @@
         <v>1598889600</v>
       </c>
       <c r="L278" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="279" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
@@ -23806,10 +23829,10 @@
         <v>0</v>
       </c>
       <c r="C279" s="96" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D279" s="96" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E279" s="95"/>
       <c r="F279" s="95"/>
@@ -23840,10 +23863,10 @@
         <v>0</v>
       </c>
       <c r="C280" s="96" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D280" s="96" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E280" s="95"/>
       <c r="F280" s="95"/>
@@ -23874,10 +23897,10 @@
         <v>0</v>
       </c>
       <c r="C281" s="96" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D281" s="96" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E281" s="95"/>
       <c r="F281" s="95"/>
@@ -23908,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="C282" s="96" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D282" s="96" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E282" s="95"/>
       <c r="F282" s="95"/>
@@ -23942,10 +23965,10 @@
         <v>0</v>
       </c>
       <c r="C283" s="96" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D283" s="96" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E283" s="95"/>
       <c r="F283" s="95"/>
@@ -23976,10 +23999,10 @@
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="17"/>
@@ -23993,13 +24016,13 @@
         <v>1</v>
       </c>
       <c r="J284" s="16" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K284" s="17">
         <v>1599521400</v>
       </c>
       <c r="L284" s="17" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="285" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -24010,10 +24033,10 @@
         <v>1</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E285" s="17"/>
       <c r="F285" s="17"/>
@@ -24033,7 +24056,7 @@
         <v>1599494400</v>
       </c>
       <c r="L285" s="17" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="286" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -24044,10 +24067,10 @@
         <v>1</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E286" s="17"/>
       <c r="F286" s="17"/>
@@ -24067,7 +24090,7 @@
         <v>1599523200</v>
       </c>
       <c r="L286" s="17" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="287" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -24078,10 +24101,10 @@
         <v>1</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E287" s="17"/>
       <c r="F287" s="17"/>
@@ -24101,7 +24124,7 @@
         <v>1599523200</v>
       </c>
       <c r="L287" s="17" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="288" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -24112,10 +24135,10 @@
         <v>1</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D288" s="16" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E288" s="17"/>
       <c r="F288" s="17"/>
@@ -24135,7 +24158,7 @@
         <v>1599494400</v>
       </c>
       <c r="L288" s="17" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24146,10 +24169,10 @@
         <v>1</v>
       </c>
       <c r="C289" s="78" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D289" s="78" t="s">
         <v>1661</v>
-      </c>
-      <c r="D289" s="78" t="s">
-        <v>1662</v>
       </c>
       <c r="E289" s="78"/>
       <c r="F289" s="78"/>
@@ -24163,13 +24186,13 @@
         <v>1</v>
       </c>
       <c r="J289" s="78" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="K289" s="78">
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24180,10 +24203,10 @@
         <v>1</v>
       </c>
       <c r="C290" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D290" s="78" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E290" s="78"/>
       <c r="F290" s="78"/>
@@ -24197,13 +24220,13 @@
         <v>1</v>
       </c>
       <c r="J290" s="78" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="K290" s="78">
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24214,10 +24237,10 @@
         <v>1</v>
       </c>
       <c r="C291" s="79" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D291" s="78" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E291" s="78"/>
       <c r="F291" s="78"/>
@@ -24231,13 +24254,13 @@
         <v>1</v>
       </c>
       <c r="J291" s="78" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="K291" s="78">
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24248,10 +24271,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D292" s="79" t="s">
         <v>1884</v>
-      </c>
-      <c r="D292" s="79" t="s">
-        <v>1885</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -24265,13 +24288,13 @@
         <v>1</v>
       </c>
       <c r="J292" s="78" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="K292" s="108">
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -24282,10 +24305,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -24314,10 +24337,10 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G294" s="17">
         <v>299</v>
@@ -24346,10 +24369,10 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="G295" s="17">
         <v>300</v>
@@ -24378,10 +24401,10 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D296" s="16" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="G296" s="17">
         <v>301</v>
@@ -24410,10 +24433,10 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="G297" s="17">
         <v>302</v>
@@ -24442,10 +24465,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -24474,10 +24497,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -24506,10 +24529,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -24538,10 +24561,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -24570,10 +24593,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -24602,10 +24625,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -24634,10 +24657,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -24666,10 +24689,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -24698,10 +24721,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -24730,10 +24753,10 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="G307" s="26">
         <v>312</v>
@@ -24762,10 +24785,10 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D308" s="16" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="G308" s="26">
         <v>313</v>
@@ -24794,10 +24817,10 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D309" s="16" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="G309" s="26">
         <v>314</v>
@@ -24826,10 +24849,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D310" s="30" t="s">
         <v>1706</v>
-      </c>
-      <c r="D310" s="30" t="s">
-        <v>1707</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -24858,10 +24881,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -24890,10 +24913,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D312" s="30" t="s">
         <v>1710</v>
-      </c>
-      <c r="D312" s="30" t="s">
-        <v>1711</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -24922,10 +24945,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -24954,10 +24977,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D314" s="30" t="s">
         <v>1716</v>
-      </c>
-      <c r="D314" s="30" t="s">
-        <v>1717</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -24986,10 +25009,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -25018,10 +25041,10 @@
         <v>1</v>
       </c>
       <c r="C316" s="16" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D316" s="16" t="s">
         <v>1737</v>
-      </c>
-      <c r="D316" s="16" t="s">
-        <v>1738</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -25041,7 +25064,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -25052,10 +25075,10 @@
         <v>1</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -25073,7 +25096,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -25084,10 +25107,10 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -25105,7 +25128,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -25116,10 +25139,10 @@
         <v>1</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -25137,7 +25160,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -25148,10 +25171,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -25180,10 +25203,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="30" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D321" s="26" t="s">
         <v>1751</v>
-      </c>
-      <c r="D321" s="26" t="s">
-        <v>1752</v>
       </c>
       <c r="G321" s="26">
         <v>325</v>
@@ -25201,7 +25224,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="30" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -25212,10 +25235,10 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -25233,7 +25256,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -25244,10 +25267,10 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -25265,7 +25288,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -25276,10 +25299,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -25308,10 +25331,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -25340,10 +25363,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -25361,7 +25384,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -25372,10 +25395,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -25393,7 +25416,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -25404,10 +25427,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -25436,10 +25459,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D329" s="26" t="s">
         <v>1848</v>
-      </c>
-      <c r="D329" s="26" t="s">
-        <v>1849</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -25468,10 +25491,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -25483,7 +25506,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -25500,10 +25523,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D331" s="26" t="s">
         <v>1851</v>
-      </c>
-      <c r="D331" s="26" t="s">
-        <v>1852</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -25532,10 +25555,10 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D332" s="101" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E332" s="100"/>
       <c r="F332" s="100"/>
@@ -25555,7 +25578,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -25566,10 +25589,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -25581,7 +25604,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -25598,10 +25621,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -25677,10 +25700,10 @@
   <dimension ref="A1:I864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C712" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C842" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A731" sqref="A731"/>
+      <selection pane="bottomRight" activeCell="F861" sqref="F861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25833,7 +25856,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>881</v>
@@ -26195,7 +26218,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D21" s="8">
         <v>1583769600</v>
@@ -26264,7 +26287,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1053</v>
@@ -27046,7 +27069,7 @@
         <v>40</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>1058</v>
@@ -27391,7 +27414,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1051</v>
@@ -27739,7 +27762,7 @@
         <v>866</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E88" s="8">
         <v>2</v>
@@ -27831,7 +27854,7 @@
         <v>866</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E92" s="8">
         <v>2</v>
@@ -29809,7 +29832,7 @@
         <v>1046</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -29818,7 +29841,7 @@
         <v>4</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29832,7 +29855,7 @@
         <v>1046</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -29841,7 +29864,7 @@
         <v>5</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30223,7 +30246,7 @@
         <v>1046</v>
       </c>
       <c r="D196" s="105" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E196" s="103">
         <v>2</v>
@@ -30232,7 +30255,7 @@
         <v>4</v>
       </c>
       <c r="G196" s="104" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -30246,7 +30269,7 @@
         <v>1046</v>
       </c>
       <c r="D197" s="105" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E197" s="103">
         <v>2</v>
@@ -30255,7 +30278,7 @@
         <v>5</v>
       </c>
       <c r="G197" s="104" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30266,7 +30289,7 @@
         <v>80</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>931</v>
@@ -38446,7 +38469,7 @@
         <v>200</v>
       </c>
       <c r="C553" s="19" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D553" s="19" t="s">
         <v>1071</v>
@@ -38561,7 +38584,7 @@
         <v>203</v>
       </c>
       <c r="C558" s="19" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D558" s="77">
         <v>1</v>
@@ -38596,7 +38619,7 @@
         <v>1</v>
       </c>
       <c r="G559" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="560" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -38619,7 +38642,7 @@
         <v>1</v>
       </c>
       <c r="G560" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
@@ -38642,7 +38665,7 @@
         <v>1</v>
       </c>
       <c r="G561" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
@@ -38665,7 +38688,7 @@
         <v>1</v>
       </c>
       <c r="G562" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
@@ -38688,7 +38711,7 @@
         <v>1</v>
       </c>
       <c r="G563" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
@@ -38711,7 +38734,7 @@
         <v>1</v>
       </c>
       <c r="G564" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
@@ -38734,7 +38757,7 @@
         <v>1</v>
       </c>
       <c r="G565" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
@@ -38757,7 +38780,7 @@
         <v>2</v>
       </c>
       <c r="G566" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
@@ -38780,7 +38803,7 @@
         <v>1</v>
       </c>
       <c r="G567" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
@@ -38803,7 +38826,7 @@
         <v>2</v>
       </c>
       <c r="G568" s="10" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
@@ -38826,7 +38849,7 @@
         <v>1</v>
       </c>
       <c r="G569" s="10" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
@@ -38849,7 +38872,7 @@
         <v>2</v>
       </c>
       <c r="G570" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
@@ -38872,7 +38895,7 @@
         <v>1</v>
       </c>
       <c r="G571" s="10" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
@@ -38895,7 +38918,7 @@
         <v>2</v>
       </c>
       <c r="G572" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
@@ -38918,7 +38941,7 @@
         <v>1</v>
       </c>
       <c r="G573" s="10" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
@@ -38941,7 +38964,7 @@
         <v>2</v>
       </c>
       <c r="G574" s="10" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
@@ -38964,7 +38987,7 @@
         <v>1</v>
       </c>
       <c r="G575" s="10" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
@@ -38975,7 +38998,7 @@
         <v>215</v>
       </c>
       <c r="C576" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D576" s="8">
         <v>1</v>
@@ -38987,7 +39010,7 @@
         <v>2</v>
       </c>
       <c r="G576" s="10" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
@@ -39010,7 +39033,7 @@
         <v>1</v>
       </c>
       <c r="G577" s="10" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
@@ -39021,7 +39044,7 @@
         <v>216</v>
       </c>
       <c r="C578" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D578" s="8">
         <v>1</v>
@@ -39033,7 +39056,7 @@
         <v>2</v>
       </c>
       <c r="G578" s="10" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
@@ -39056,7 +39079,7 @@
         <v>1</v>
       </c>
       <c r="G579" s="10" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
@@ -39079,7 +39102,7 @@
         <v>2</v>
       </c>
       <c r="G580" s="10" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
@@ -39102,7 +39125,7 @@
         <v>1</v>
       </c>
       <c r="G581" s="10" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
@@ -39125,7 +39148,7 @@
         <v>2</v>
       </c>
       <c r="G582" s="10" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
@@ -39148,7 +39171,7 @@
         <v>1</v>
       </c>
       <c r="G583" s="10" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
@@ -39171,7 +39194,7 @@
         <v>2</v>
       </c>
       <c r="G584" s="10" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
@@ -39194,7 +39217,7 @@
         <v>1</v>
       </c>
       <c r="G585" s="10" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
@@ -39217,7 +39240,7 @@
         <v>2</v>
       </c>
       <c r="G586" s="10" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
@@ -39240,7 +39263,7 @@
         <v>1</v>
       </c>
       <c r="G587" s="10" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
@@ -39263,7 +39286,7 @@
         <v>2</v>
       </c>
       <c r="G588" s="10" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
@@ -39286,7 +39309,7 @@
         <v>1</v>
       </c>
       <c r="G589" s="10" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
@@ -39309,7 +39332,7 @@
         <v>2</v>
       </c>
       <c r="G590" s="10" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
@@ -39332,7 +39355,7 @@
         <v>1</v>
       </c>
       <c r="G591" s="10" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
@@ -39355,7 +39378,7 @@
         <v>2</v>
       </c>
       <c r="G592" s="10" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.2">
@@ -39378,7 +39401,7 @@
         <v>1</v>
       </c>
       <c r="G593" s="10" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.2">
@@ -39401,7 +39424,7 @@
         <v>2</v>
       </c>
       <c r="G594" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.2">
@@ -39412,7 +39435,7 @@
         <v>225</v>
       </c>
       <c r="C595" s="10" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D595" s="9">
         <v>16</v>
@@ -39424,7 +39447,7 @@
         <v>1</v>
       </c>
       <c r="G595" s="10" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.2">
@@ -39447,7 +39470,7 @@
         <v>2</v>
       </c>
       <c r="G596" s="10" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.2">
@@ -39458,7 +39481,7 @@
         <v>226</v>
       </c>
       <c r="C597" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D597" s="9">
         <v>1</v>
@@ -39470,7 +39493,7 @@
         <v>1</v>
       </c>
       <c r="G597" s="10" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H597" s="10"/>
     </row>
@@ -39485,7 +39508,7 @@
         <v>1169</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -39494,7 +39517,7 @@
         <v>1</v>
       </c>
       <c r="G598" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.2">
@@ -39505,7 +39528,7 @@
         <v>226</v>
       </c>
       <c r="C599" s="53" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D599" s="9">
         <v>5</v>
@@ -39517,7 +39540,7 @@
         <v>2</v>
       </c>
       <c r="G599" s="10" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.2">
@@ -39531,7 +39554,7 @@
         <v>1169</v>
       </c>
       <c r="D600" s="10" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E600" s="8">
         <v>5</v>
@@ -39540,7 +39563,7 @@
         <v>2</v>
       </c>
       <c r="G600" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="601" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39554,7 +39577,7 @@
         <v>1169</v>
       </c>
       <c r="D601" s="10" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E601" s="14">
         <v>2</v>
@@ -39563,7 +39586,7 @@
         <v>3</v>
       </c>
       <c r="G601" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="602" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39577,7 +39600,7 @@
         <v>1169</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E602" s="14">
         <v>2</v>
@@ -39586,7 +39609,7 @@
         <v>4</v>
       </c>
       <c r="G602" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="603" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39597,7 +39620,7 @@
         <v>227</v>
       </c>
       <c r="C603" s="15" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D603" s="14">
         <v>1</v>
@@ -39609,7 +39632,7 @@
         <v>1</v>
       </c>
       <c r="G603" s="15" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="604" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39623,7 +39646,7 @@
         <v>1169</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -39632,7 +39655,7 @@
         <v>1</v>
       </c>
       <c r="G604" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="605" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39643,7 +39666,7 @@
         <v>227</v>
       </c>
       <c r="C605" s="15" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D605" s="14">
         <v>7</v>
@@ -39655,7 +39678,7 @@
         <v>2</v>
       </c>
       <c r="G605" s="15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="606" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39669,7 +39692,7 @@
         <v>1169</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E606" s="14">
         <v>5</v>
@@ -39678,7 +39701,7 @@
         <v>2</v>
       </c>
       <c r="G606" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="607" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39692,7 +39715,7 @@
         <v>1169</v>
       </c>
       <c r="D607" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E607" s="14">
         <v>2</v>
@@ -39701,7 +39724,7 @@
         <v>3</v>
       </c>
       <c r="G607" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="608" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39715,7 +39738,7 @@
         <v>1169</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E608" s="14">
         <v>2</v>
@@ -39724,7 +39747,7 @@
         <v>4</v>
       </c>
       <c r="G608" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.2">
@@ -39735,7 +39758,7 @@
         <v>228</v>
       </c>
       <c r="C609" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D609" s="9">
         <v>1</v>
@@ -39747,7 +39770,7 @@
         <v>1</v>
       </c>
       <c r="G609" s="10" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
@@ -39761,7 +39784,7 @@
         <v>1169</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -39770,7 +39793,7 @@
         <v>1</v>
       </c>
       <c r="G610" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.2">
@@ -39781,7 +39804,7 @@
         <v>228</v>
       </c>
       <c r="C611" s="53" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D611" s="9">
         <v>9</v>
@@ -39793,7 +39816,7 @@
         <v>2</v>
       </c>
       <c r="G611" s="10" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
@@ -39807,7 +39830,7 @@
         <v>1169</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E612" s="8">
         <v>5</v>
@@ -39816,7 +39839,7 @@
         <v>2</v>
       </c>
       <c r="G612" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="613" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39830,7 +39853,7 @@
         <v>1169</v>
       </c>
       <c r="D613" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E613" s="14">
         <v>2</v>
@@ -39839,7 +39862,7 @@
         <v>3</v>
       </c>
       <c r="G613" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="614" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39853,7 +39876,7 @@
         <v>1169</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -39862,7 +39885,7 @@
         <v>4</v>
       </c>
       <c r="G614" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
@@ -39873,7 +39896,7 @@
         <v>229</v>
       </c>
       <c r="C615" s="53" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D615" s="9">
         <v>12</v>
@@ -39885,7 +39908,7 @@
         <v>1</v>
       </c>
       <c r="G615" s="10" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.2">
@@ -39899,7 +39922,7 @@
         <v>1169</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -39908,7 +39931,7 @@
         <v>1</v>
       </c>
       <c r="G616" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
@@ -39931,7 +39954,7 @@
         <v>2</v>
       </c>
       <c r="G617" s="10" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.2">
@@ -39945,7 +39968,7 @@
         <v>1169</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E618" s="8">
         <v>5</v>
@@ -39954,7 +39977,7 @@
         <v>2</v>
       </c>
       <c r="G618" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="619" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39968,7 +39991,7 @@
         <v>1169</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E619" s="14">
         <v>2</v>
@@ -39977,7 +40000,7 @@
         <v>3</v>
       </c>
       <c r="G619" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="620" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39991,7 +40014,7 @@
         <v>1169</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E620" s="14">
         <v>2</v>
@@ -40000,7 +40023,7 @@
         <v>4</v>
       </c>
       <c r="G620" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.2">
@@ -40011,7 +40034,7 @@
         <v>230</v>
       </c>
       <c r="C621" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D621" s="9">
         <v>1</v>
@@ -40023,7 +40046,7 @@
         <v>1</v>
       </c>
       <c r="G621" s="10" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
@@ -40037,7 +40060,7 @@
         <v>1169</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -40046,7 +40069,7 @@
         <v>1</v>
       </c>
       <c r="G622" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.2">
@@ -40057,7 +40080,7 @@
         <v>230</v>
       </c>
       <c r="C623" s="53" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D623" s="9">
         <v>11</v>
@@ -40069,7 +40092,7 @@
         <v>2</v>
       </c>
       <c r="G623" s="10" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.2">
@@ -40083,7 +40106,7 @@
         <v>1169</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E624" s="8">
         <v>5</v>
@@ -40092,7 +40115,7 @@
         <v>2</v>
       </c>
       <c r="G624" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="625" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -40106,7 +40129,7 @@
         <v>1169</v>
       </c>
       <c r="D625" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E625" s="14">
         <v>2</v>
@@ -40115,7 +40138,7 @@
         <v>3</v>
       </c>
       <c r="G625" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="626" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -40129,7 +40152,7 @@
         <v>1169</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E626" s="14">
         <v>2</v>
@@ -40138,7 +40161,7 @@
         <v>4</v>
       </c>
       <c r="G626" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.2">
@@ -40149,7 +40172,7 @@
         <v>231</v>
       </c>
       <c r="C627" s="53" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D627" s="9">
         <v>1</v>
@@ -40161,7 +40184,7 @@
         <v>1</v>
       </c>
       <c r="G627" s="10" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.2">
@@ -40175,7 +40198,7 @@
         <v>1169</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -40184,7 +40207,7 @@
         <v>1</v>
       </c>
       <c r="G628" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.2">
@@ -40195,7 +40218,7 @@
         <v>231</v>
       </c>
       <c r="C629" s="53" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D629" s="9">
         <v>14</v>
@@ -40207,7 +40230,7 @@
         <v>2</v>
       </c>
       <c r="G629" s="10" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.2">
@@ -40221,7 +40244,7 @@
         <v>1169</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E630" s="8">
         <v>5</v>
@@ -40230,7 +40253,7 @@
         <v>2</v>
       </c>
       <c r="G630" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="631" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -40244,7 +40267,7 @@
         <v>1169</v>
       </c>
       <c r="D631" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E631" s="14">
         <v>2</v>
@@ -40253,7 +40276,7 @@
         <v>3</v>
       </c>
       <c r="G631" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="632" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -40267,7 +40290,7 @@
         <v>1169</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E632" s="14">
         <v>2</v>
@@ -40276,7 +40299,7 @@
         <v>4</v>
       </c>
       <c r="G632" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.2">
@@ -40287,7 +40310,7 @@
         <v>232</v>
       </c>
       <c r="C633" s="53" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D633" s="9">
         <v>1</v>
@@ -40299,7 +40322,7 @@
         <v>1</v>
       </c>
       <c r="G633" s="53" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.2">
@@ -40310,7 +40333,7 @@
         <v>233</v>
       </c>
       <c r="C634" s="53" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D634" s="9">
         <v>2</v>
@@ -40322,7 +40345,7 @@
         <v>1</v>
       </c>
       <c r="G634" s="53" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.2">
@@ -40333,7 +40356,7 @@
         <v>234</v>
       </c>
       <c r="C635" s="53" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D635" s="9">
         <v>3</v>
@@ -40345,7 +40368,7 @@
         <v>1</v>
       </c>
       <c r="G635" s="53" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.2">
@@ -40356,7 +40379,7 @@
         <v>235</v>
       </c>
       <c r="C636" s="53" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D636" s="9">
         <v>4</v>
@@ -40368,7 +40391,7 @@
         <v>1</v>
       </c>
       <c r="G636" s="53" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.2">
@@ -40379,7 +40402,7 @@
         <v>236</v>
       </c>
       <c r="C637" s="53" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D637" s="9">
         <v>5</v>
@@ -40391,7 +40414,7 @@
         <v>1</v>
       </c>
       <c r="G637" s="53" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H637" s="3"/>
     </row>
@@ -40403,7 +40426,7 @@
         <v>237</v>
       </c>
       <c r="C638" s="53" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D638" s="9">
         <v>6</v>
@@ -40415,7 +40438,7 @@
         <v>1</v>
       </c>
       <c r="G638" s="53" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H638" s="3"/>
     </row>
@@ -40427,7 +40450,7 @@
         <v>238</v>
       </c>
       <c r="C639" s="53" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D639" s="9">
         <v>7</v>
@@ -40439,7 +40462,7 @@
         <v>1</v>
       </c>
       <c r="G639" s="53" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H639" s="3"/>
     </row>
@@ -40451,7 +40474,7 @@
         <v>239</v>
       </c>
       <c r="C640" s="53" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D640" s="9">
         <v>8</v>
@@ -40463,7 +40486,7 @@
         <v>1</v>
       </c>
       <c r="G640" s="53" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H640" s="3"/>
     </row>
@@ -40475,7 +40498,7 @@
         <v>240</v>
       </c>
       <c r="C641" s="53" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D641" s="9">
         <v>9</v>
@@ -40487,7 +40510,7 @@
         <v>1</v>
       </c>
       <c r="G641" s="53" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H641" s="3"/>
     </row>
@@ -40499,7 +40522,7 @@
         <v>241</v>
       </c>
       <c r="C642" s="53" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D642" s="9">
         <v>10</v>
@@ -40511,7 +40534,7 @@
         <v>1</v>
       </c>
       <c r="G642" s="53" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H642" s="3"/>
     </row>
@@ -40535,7 +40558,7 @@
         <v>1</v>
       </c>
       <c r="G643" s="10" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.2">
@@ -40558,7 +40581,7 @@
         <v>1</v>
       </c>
       <c r="G644" s="10" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.2">
@@ -40581,7 +40604,7 @@
         <v>1</v>
       </c>
       <c r="G645" s="10" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.2">
@@ -40615,7 +40638,7 @@
         <v>246</v>
       </c>
       <c r="C647" s="10" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D647" s="8">
         <v>1</v>
@@ -40627,7 +40650,7 @@
         <v>1</v>
       </c>
       <c r="G647" s="10" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="648" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40638,7 +40661,7 @@
         <v>246</v>
       </c>
       <c r="C648" s="10" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D648" s="8">
         <v>3</v>
@@ -40650,7 +40673,7 @@
         <v>1</v>
       </c>
       <c r="G648" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="649" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40742,7 +40765,7 @@
         <v>1</v>
       </c>
       <c r="G652" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="653" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40753,7 +40776,7 @@
         <v>247</v>
       </c>
       <c r="C653" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D653" s="8">
         <v>10</v>
@@ -40765,7 +40788,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="654" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40802,7 +40825,7 @@
         <v>1046</v>
       </c>
       <c r="D655" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E655" s="8">
         <v>2</v>
@@ -40811,7 +40834,7 @@
         <v>1</v>
       </c>
       <c r="G655" s="53" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.2">
@@ -40834,7 +40857,7 @@
         <v>1</v>
       </c>
       <c r="G656" s="10" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
@@ -40857,7 +40880,7 @@
         <v>2</v>
       </c>
       <c r="G657" s="10" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.2">
@@ -40937,7 +40960,7 @@
         <v>253</v>
       </c>
       <c r="C661" s="10" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D661" s="8">
         <v>1</v>
@@ -40949,7 +40972,7 @@
         <v>1</v>
       </c>
       <c r="G661" s="10" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
@@ -40960,7 +40983,7 @@
         <v>253</v>
       </c>
       <c r="C662" s="10" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D662" s="8">
         <v>3</v>
@@ -40972,7 +40995,7 @@
         <v>1</v>
       </c>
       <c r="G662" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
@@ -41064,7 +41087,7 @@
         <v>1</v>
       </c>
       <c r="G666" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
@@ -41075,7 +41098,7 @@
         <v>254</v>
       </c>
       <c r="C667" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D667" s="8">
         <v>7</v>
@@ -41087,7 +41110,7 @@
         <v>1</v>
       </c>
       <c r="G667" s="10" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
@@ -41133,7 +41156,7 @@
         <v>1</v>
       </c>
       <c r="G669" s="10" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.2">
@@ -41144,7 +41167,7 @@
         <v>255</v>
       </c>
       <c r="C670" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D670" s="8">
         <v>10</v>
@@ -41156,7 +41179,7 @@
         <v>1</v>
       </c>
       <c r="G670" s="10" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.2">
@@ -41225,7 +41248,7 @@
         <v>1</v>
       </c>
       <c r="G673" s="9" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
@@ -41248,7 +41271,7 @@
         <v>1</v>
       </c>
       <c r="G674" s="10" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.2">
@@ -41262,7 +41285,7 @@
         <v>1169</v>
       </c>
       <c r="D675" s="10" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E675" s="8">
         <v>2</v>
@@ -41271,7 +41294,7 @@
         <v>1</v>
       </c>
       <c r="G675" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.2">
@@ -41282,7 +41305,7 @@
         <v>258</v>
       </c>
       <c r="C676" s="10" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D676" s="10">
         <v>1598317200</v>
@@ -41294,7 +41317,7 @@
         <v>1</v>
       </c>
       <c r="G676" s="10" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.2">
@@ -41363,7 +41386,7 @@
         <v>1</v>
       </c>
       <c r="G679" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.2">
@@ -41397,7 +41420,7 @@
         <v>263</v>
       </c>
       <c r="C681" s="10" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D681" s="10" t="s">
         <v>921</v>
@@ -41409,7 +41432,7 @@
         <v>1</v>
       </c>
       <c r="G681" s="10" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.2">
@@ -41501,7 +41524,7 @@
         <v>2</v>
       </c>
       <c r="G685" s="10" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="686" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -41558,7 +41581,7 @@
         <v>267</v>
       </c>
       <c r="C688" s="10" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D688" s="8">
         <v>0</v>
@@ -41570,7 +41593,7 @@
         <v>1</v>
       </c>
       <c r="G688" s="10" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.2">
@@ -41581,7 +41604,7 @@
         <v>268</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D689" s="8">
         <v>1</v>
@@ -41593,7 +41616,7 @@
         <v>1</v>
       </c>
       <c r="G689" s="10" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.2">
@@ -41604,7 +41627,7 @@
         <v>269</v>
       </c>
       <c r="C690" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D690" s="8">
         <v>2</v>
@@ -41616,7 +41639,7 @@
         <v>1</v>
       </c>
       <c r="G690" s="10" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.2">
@@ -41627,7 +41650,7 @@
         <v>270</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D691" s="8">
         <v>3</v>
@@ -41639,7 +41662,7 @@
         <v>1</v>
       </c>
       <c r="G691" s="10" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.2">
@@ -41650,7 +41673,7 @@
         <v>271</v>
       </c>
       <c r="C692" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D692" s="8">
         <v>4</v>
@@ -41662,7 +41685,7 @@
         <v>1</v>
       </c>
       <c r="G692" s="10" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.2">
@@ -41673,7 +41696,7 @@
         <v>272</v>
       </c>
       <c r="C693" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D693" s="8">
         <v>5</v>
@@ -41685,7 +41708,7 @@
         <v>1</v>
       </c>
       <c r="G693" s="10" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.2">
@@ -41696,7 +41719,7 @@
         <v>273</v>
       </c>
       <c r="C694" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D694" s="8">
         <v>6</v>
@@ -41708,7 +41731,7 @@
         <v>1</v>
       </c>
       <c r="G694" s="10" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.2">
@@ -41719,7 +41742,7 @@
         <v>274</v>
       </c>
       <c r="C695" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D695" s="8">
         <v>7</v>
@@ -41731,7 +41754,7 @@
         <v>1</v>
       </c>
       <c r="G695" s="10" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.2">
@@ -41742,7 +41765,7 @@
         <v>275</v>
       </c>
       <c r="C696" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D696" s="8">
         <v>8</v>
@@ -41754,7 +41777,7 @@
         <v>1</v>
       </c>
       <c r="G696" s="10" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.2">
@@ -41765,7 +41788,7 @@
         <v>276</v>
       </c>
       <c r="C697" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D697" s="8">
         <v>9</v>
@@ -41777,7 +41800,7 @@
         <v>1</v>
       </c>
       <c r="G697" s="10" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.2">
@@ -41788,7 +41811,7 @@
         <v>277</v>
       </c>
       <c r="C698" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D698" s="8">
         <v>10</v>
@@ -41800,7 +41823,7 @@
         <v>1</v>
       </c>
       <c r="G698" s="10" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.2">
@@ -41811,7 +41834,7 @@
         <v>278</v>
       </c>
       <c r="C699" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D699" s="8">
         <v>11</v>
@@ -41823,7 +41846,7 @@
         <v>1</v>
       </c>
       <c r="G699" s="10" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.2">
@@ -41834,7 +41857,7 @@
         <v>279</v>
       </c>
       <c r="C700" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D700" s="8">
         <v>12</v>
@@ -41846,7 +41869,7 @@
         <v>1</v>
       </c>
       <c r="G700" s="10" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.2">
@@ -41915,7 +41938,7 @@
         <v>1</v>
       </c>
       <c r="G703" s="10" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.2">
@@ -41926,19 +41949,19 @@
         <v>282</v>
       </c>
       <c r="C704" s="10" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D704" s="10" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E704" s="8">
+        <v>2</v>
+      </c>
+      <c r="F704" s="8">
+        <v>1</v>
+      </c>
+      <c r="G704" s="10" t="s">
         <v>1607</v>
-      </c>
-      <c r="E704" s="8">
-        <v>2</v>
-      </c>
-      <c r="F704" s="8">
-        <v>1</v>
-      </c>
-      <c r="G704" s="10" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.2">
@@ -41995,7 +42018,7 @@
         <v>284</v>
       </c>
       <c r="C707" s="10" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D707" s="8">
         <v>1</v>
@@ -42007,7 +42030,7 @@
         <v>1</v>
       </c>
       <c r="G707" s="10" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.2">
@@ -42018,7 +42041,7 @@
         <v>284</v>
       </c>
       <c r="C708" s="10" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D708" s="8">
         <v>3</v>
@@ -42030,7 +42053,7 @@
         <v>1</v>
       </c>
       <c r="G708" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
@@ -42041,7 +42064,7 @@
         <v>285</v>
       </c>
       <c r="C709" s="10" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D709" s="8">
         <v>4</v>
@@ -42053,7 +42076,7 @@
         <v>1</v>
       </c>
       <c r="G709" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.2">
@@ -42064,7 +42087,7 @@
         <v>285</v>
       </c>
       <c r="C710" s="10" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D710" s="8">
         <v>6</v>
@@ -42076,7 +42099,7 @@
         <v>1</v>
       </c>
       <c r="G710" s="10" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
@@ -42087,7 +42110,7 @@
         <v>286</v>
       </c>
       <c r="C711" s="10" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D711" s="8">
         <v>7</v>
@@ -42099,7 +42122,7 @@
         <v>1</v>
       </c>
       <c r="G711" s="10" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
@@ -42110,7 +42133,7 @@
         <v>286</v>
       </c>
       <c r="C712" s="53" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D712" s="9">
         <v>10</v>
@@ -42122,7 +42145,7 @@
         <v>1</v>
       </c>
       <c r="G712" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="713" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -42133,10 +42156,10 @@
         <v>287</v>
       </c>
       <c r="C713" s="10" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D713" s="10" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E713" s="8">
         <v>2</v>
@@ -42145,7 +42168,7 @@
         <v>1</v>
       </c>
       <c r="G713" s="10" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="714" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -42159,7 +42182,7 @@
         <v>1170</v>
       </c>
       <c r="D714" s="10" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E714" s="8">
         <v>5</v>
@@ -42168,7 +42191,7 @@
         <v>2</v>
       </c>
       <c r="G714" s="10" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.2">
@@ -42202,10 +42225,10 @@
         <v>288</v>
       </c>
       <c r="C716" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D716" s="10" t="s">
         <v>1656</v>
-      </c>
-      <c r="D716" s="10" t="s">
-        <v>1657</v>
       </c>
       <c r="E716" s="8">
         <v>5</v>
@@ -42214,7 +42237,7 @@
         <v>1</v>
       </c>
       <c r="G716" s="10" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
@@ -42248,10 +42271,10 @@
         <v>288</v>
       </c>
       <c r="C718" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D718" s="10" t="s">
         <v>1656</v>
-      </c>
-      <c r="D718" s="10" t="s">
-        <v>1657</v>
       </c>
       <c r="E718" s="8">
         <v>5</v>
@@ -42260,7 +42283,7 @@
         <v>2</v>
       </c>
       <c r="G718" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
@@ -42283,7 +42306,7 @@
         <v>1</v>
       </c>
       <c r="G719" s="10" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.2">
@@ -42306,7 +42329,7 @@
         <v>1</v>
       </c>
       <c r="G720" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.2">
@@ -42317,10 +42340,10 @@
         <v>289</v>
       </c>
       <c r="C721" s="8" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D721" s="10" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E721" s="8">
         <v>5</v>
@@ -42329,7 +42352,7 @@
         <v>1</v>
       </c>
       <c r="G721" s="10" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
@@ -42340,10 +42363,10 @@
         <v>289</v>
       </c>
       <c r="C722" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D722" s="10" t="s">
         <v>1656</v>
-      </c>
-      <c r="D722" s="10" t="s">
-        <v>1657</v>
       </c>
       <c r="E722" s="8">
         <v>5</v>
@@ -42352,7 +42375,7 @@
         <v>1</v>
       </c>
       <c r="G722" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.2">
@@ -42363,10 +42386,10 @@
         <v>290</v>
       </c>
       <c r="C723" s="8" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D723" s="10" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E723" s="8">
         <v>5</v>
@@ -42375,7 +42398,7 @@
         <v>1</v>
       </c>
       <c r="G723" s="10" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
@@ -42398,7 +42421,7 @@
         <v>1</v>
       </c>
       <c r="G724" s="8" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
@@ -42421,7 +42444,7 @@
         <v>1</v>
       </c>
       <c r="G725" s="8" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.2">
@@ -42432,10 +42455,10 @@
         <v>290</v>
       </c>
       <c r="C726" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D726" s="10" t="s">
         <v>1656</v>
-      </c>
-      <c r="D726" s="10" t="s">
-        <v>1657</v>
       </c>
       <c r="E726" s="8">
         <v>5</v>
@@ -42444,7 +42467,7 @@
         <v>1</v>
       </c>
       <c r="G726" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
@@ -42467,7 +42490,7 @@
         <v>1</v>
       </c>
       <c r="G727" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
@@ -42490,7 +42513,7 @@
         <v>1</v>
       </c>
       <c r="G728" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.2">
@@ -42501,10 +42524,10 @@
         <v>291</v>
       </c>
       <c r="C729" s="8" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D729" s="10" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E729" s="8">
         <v>5</v>
@@ -42513,7 +42536,7 @@
         <v>1</v>
       </c>
       <c r="G729" s="10" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.2">
@@ -42524,10 +42547,10 @@
         <v>291</v>
       </c>
       <c r="C730" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D730" s="10" t="s">
         <v>1656</v>
-      </c>
-      <c r="D730" s="10" t="s">
-        <v>1657</v>
       </c>
       <c r="E730" s="8">
         <v>5</v>
@@ -42536,7 +42559,7 @@
         <v>1</v>
       </c>
       <c r="G730" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="731" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -42550,7 +42573,7 @@
         <v>1169</v>
       </c>
       <c r="D731" s="10" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E731" s="8">
         <v>2</v>
@@ -42559,7 +42582,7 @@
         <v>1</v>
       </c>
       <c r="G731" s="10" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
@@ -42573,7 +42596,7 @@
         <v>1066</v>
       </c>
       <c r="D732" s="10" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E732" s="8">
         <v>5</v>
@@ -42582,7 +42605,7 @@
         <v>1</v>
       </c>
       <c r="G732" s="10" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
@@ -42605,7 +42628,7 @@
         <v>1</v>
       </c>
       <c r="G733" s="8" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
@@ -42628,7 +42651,7 @@
         <v>1</v>
       </c>
       <c r="G734" s="10" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.2">
@@ -42639,10 +42662,10 @@
         <v>293</v>
       </c>
       <c r="C735" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D735" s="10" t="s">
         <v>1656</v>
-      </c>
-      <c r="D735" s="10" t="s">
-        <v>1657</v>
       </c>
       <c r="E735" s="8">
         <v>5</v>
@@ -42651,7 +42674,7 @@
         <v>1</v>
       </c>
       <c r="G735" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
@@ -42665,7 +42688,7 @@
         <v>1066</v>
       </c>
       <c r="D736" s="19" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E736" s="77">
         <v>5</v>
@@ -42674,7 +42697,7 @@
         <v>1</v>
       </c>
       <c r="G736" s="19" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.2">
@@ -42697,7 +42720,7 @@
         <v>1</v>
       </c>
       <c r="G737" s="77" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
@@ -42720,7 +42743,7 @@
         <v>1</v>
       </c>
       <c r="G738" s="77" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
@@ -42734,7 +42757,7 @@
         <v>1066</v>
       </c>
       <c r="D739" s="19" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E739" s="77">
         <v>5</v>
@@ -42743,7 +42766,7 @@
         <v>1</v>
       </c>
       <c r="G739" s="19" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
@@ -42766,7 +42789,7 @@
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
@@ -42789,7 +42812,7 @@
         <v>1</v>
       </c>
       <c r="G741" s="19" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
@@ -42803,7 +42826,7 @@
         <v>1066</v>
       </c>
       <c r="D742" s="19" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E742" s="77">
         <v>5</v>
@@ -42812,7 +42835,7 @@
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
@@ -42835,7 +42858,7 @@
         <v>1</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
@@ -42858,7 +42881,7 @@
         <v>1</v>
       </c>
       <c r="G744" s="19" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.2">
@@ -42872,7 +42895,7 @@
         <v>1066</v>
       </c>
       <c r="D745" s="19" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E745" s="77">
         <v>5</v>
@@ -42881,7 +42904,7 @@
         <v>1</v>
       </c>
       <c r="G745" s="19" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.2">
@@ -42904,7 +42927,7 @@
         <v>1</v>
       </c>
       <c r="G746" s="77" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="747" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42996,7 +43019,7 @@
         <v>1</v>
       </c>
       <c r="G750" s="10" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.2">
@@ -43019,7 +43042,7 @@
         <v>1</v>
       </c>
       <c r="G751" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="752" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43042,7 +43065,7 @@
         <v>1</v>
       </c>
       <c r="G752" s="15" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.2">
@@ -43053,7 +43076,7 @@
         <v>301</v>
       </c>
       <c r="C753" s="10" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D753" s="8">
         <v>4</v>
@@ -43065,7 +43088,7 @@
         <v>1</v>
       </c>
       <c r="G753" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.2">
@@ -43076,7 +43099,7 @@
         <v>301</v>
       </c>
       <c r="C754" s="10" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D754" s="8">
         <v>6</v>
@@ -43088,7 +43111,7 @@
         <v>1</v>
       </c>
       <c r="G754" s="10" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="755" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43111,7 +43134,7 @@
         <v>1</v>
       </c>
       <c r="G755" s="15" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="756" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43134,7 +43157,7 @@
         <v>1</v>
       </c>
       <c r="G756" s="15" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="757" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43157,7 +43180,7 @@
         <v>1</v>
       </c>
       <c r="G757" s="15" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="758" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43180,7 +43203,7 @@
         <v>1</v>
       </c>
       <c r="G758" s="15" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.2">
@@ -43194,7 +43217,7 @@
         <v>1066</v>
       </c>
       <c r="D759" s="10" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E759" s="8">
         <v>2</v>
@@ -43260,7 +43283,7 @@
         <v>304</v>
       </c>
       <c r="C762" s="10" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D762" s="8">
         <v>4</v>
@@ -43272,7 +43295,7 @@
         <v>1</v>
       </c>
       <c r="G762" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.2">
@@ -43283,7 +43306,7 @@
         <v>304</v>
       </c>
       <c r="C763" s="10" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D763" s="8">
         <v>10</v>
@@ -43295,7 +43318,7 @@
         <v>1</v>
       </c>
       <c r="G763" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="764" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43318,7 +43341,7 @@
         <v>1</v>
       </c>
       <c r="G764" s="15" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.2">
@@ -43355,7 +43378,7 @@
         <v>1046</v>
       </c>
       <c r="D766" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E766" s="8">
         <v>2</v>
@@ -43364,7 +43387,7 @@
         <v>1</v>
       </c>
       <c r="G766" s="10" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
@@ -43401,7 +43424,7 @@
         <v>1046</v>
       </c>
       <c r="D768" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E768" s="8">
         <v>2</v>
@@ -43410,7 +43433,7 @@
         <v>2</v>
       </c>
       <c r="G768" s="10" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
@@ -43447,7 +43470,7 @@
         <v>1046</v>
       </c>
       <c r="D770" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E770" s="8">
         <v>2</v>
@@ -43456,7 +43479,7 @@
         <v>3</v>
       </c>
       <c r="G770" s="10" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
@@ -43479,7 +43502,7 @@
         <v>1</v>
       </c>
       <c r="G771" s="10" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.2">
@@ -43502,7 +43525,7 @@
         <v>1</v>
       </c>
       <c r="G772" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.2">
@@ -43516,7 +43539,7 @@
         <v>1046</v>
       </c>
       <c r="D773" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E773" s="8">
         <v>2</v>
@@ -43525,7 +43548,7 @@
         <v>1</v>
       </c>
       <c r="G773" s="10" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="774" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43548,7 +43571,7 @@
         <v>1</v>
       </c>
       <c r="G774" s="15" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.2">
@@ -43559,7 +43582,7 @@
         <v>307</v>
       </c>
       <c r="C775" s="10" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D775" s="8">
         <v>4</v>
@@ -43571,7 +43594,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.2">
@@ -43582,7 +43605,7 @@
         <v>307</v>
       </c>
       <c r="C776" s="10" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D776" s="8">
         <v>6</v>
@@ -43594,7 +43617,7 @@
         <v>1</v>
       </c>
       <c r="G776" s="10" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.2">
@@ -43608,7 +43631,7 @@
         <v>1046</v>
       </c>
       <c r="D777" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E777" s="8">
         <v>2</v>
@@ -43617,7 +43640,7 @@
         <v>1</v>
       </c>
       <c r="G777" s="10" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="778" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43640,7 +43663,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="15" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.2">
@@ -43663,7 +43686,7 @@
         <v>1</v>
       </c>
       <c r="G779" s="10" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.2">
@@ -43686,7 +43709,7 @@
         <v>1</v>
       </c>
       <c r="G780" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="781" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43709,7 +43732,7 @@
         <v>1</v>
       </c>
       <c r="G781" s="15" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.2">
@@ -43723,7 +43746,7 @@
         <v>1046</v>
       </c>
       <c r="D782" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E782" s="8">
         <v>2</v>
@@ -43732,7 +43755,7 @@
         <v>1</v>
       </c>
       <c r="G782" s="10" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
@@ -43746,7 +43769,7 @@
         <v>1046</v>
       </c>
       <c r="D783" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E783" s="8">
         <v>2</v>
@@ -43755,7 +43778,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.2">
@@ -43769,7 +43792,7 @@
         <v>1046</v>
       </c>
       <c r="D784" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E784" s="8">
         <v>5</v>
@@ -43778,7 +43801,7 @@
         <v>1</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
@@ -43792,7 +43815,7 @@
         <v>1066</v>
       </c>
       <c r="D785" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E785" s="8">
         <v>2</v>
@@ -43815,7 +43838,7 @@
         <v>1046</v>
       </c>
       <c r="D786" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E786" s="8">
         <v>5</v>
@@ -43824,7 +43847,7 @@
         <v>1</v>
       </c>
       <c r="G786" s="10" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
@@ -43861,7 +43884,7 @@
         <v>1046</v>
       </c>
       <c r="D788" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E788" s="8">
         <v>5</v>
@@ -43870,7 +43893,7 @@
         <v>2</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
@@ -43907,7 +43930,7 @@
         <v>1046</v>
       </c>
       <c r="D790" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E790" s="8">
         <v>5</v>
@@ -43916,7 +43939,7 @@
         <v>3</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
@@ -43939,7 +43962,7 @@
         <v>1</v>
       </c>
       <c r="G791" s="10" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.2">
@@ -43962,7 +43985,7 @@
         <v>1</v>
       </c>
       <c r="G792" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.2">
@@ -43976,7 +43999,7 @@
         <v>1046</v>
       </c>
       <c r="D793" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E793" s="8">
         <v>5</v>
@@ -43985,7 +44008,7 @@
         <v>1</v>
       </c>
       <c r="G793" s="10" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="794" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44008,7 +44031,7 @@
         <v>1</v>
       </c>
       <c r="G794" s="15" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.2">
@@ -44031,7 +44054,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
@@ -44054,7 +44077,7 @@
         <v>1</v>
       </c>
       <c r="G796" s="10" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.2">
@@ -44068,7 +44091,7 @@
         <v>1046</v>
       </c>
       <c r="D797" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E797" s="8">
         <v>5</v>
@@ -44077,7 +44100,7 @@
         <v>1</v>
       </c>
       <c r="G797" s="10" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="798" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44100,7 +44123,7 @@
         <v>1</v>
       </c>
       <c r="G798" s="15" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.2">
@@ -44123,7 +44146,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
@@ -44146,7 +44169,7 @@
         <v>1</v>
       </c>
       <c r="G800" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="801" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44169,7 +44192,7 @@
         <v>1</v>
       </c>
       <c r="G801" s="15" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.2">
@@ -44183,7 +44206,7 @@
         <v>1046</v>
       </c>
       <c r="D802" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E802" s="8">
         <v>5</v>
@@ -44192,7 +44215,7 @@
         <v>1</v>
       </c>
       <c r="G802" s="10" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.2">
@@ -44206,7 +44229,7 @@
         <v>1046</v>
       </c>
       <c r="D803" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E803" s="8">
         <v>5</v>
@@ -44215,7 +44238,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="10" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -44229,7 +44252,7 @@
         <v>1046</v>
       </c>
       <c r="D804" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E804" s="9">
         <v>2</v>
@@ -44238,7 +44261,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="53" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -44252,7 +44275,7 @@
         <v>1046</v>
       </c>
       <c r="D805" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E805" s="8">
         <v>5</v>
@@ -44261,7 +44284,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="10" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
@@ -44275,7 +44298,7 @@
         <v>1046</v>
       </c>
       <c r="D806" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E806" s="9">
         <v>2</v>
@@ -44284,7 +44307,7 @@
         <v>1</v>
       </c>
       <c r="G806" s="53" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
@@ -44298,7 +44321,7 @@
         <v>1046</v>
       </c>
       <c r="D807" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E807" s="8">
         <v>5</v>
@@ -44307,7 +44330,7 @@
         <v>1</v>
       </c>
       <c r="G807" s="10" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -44321,7 +44344,7 @@
         <v>1046</v>
       </c>
       <c r="D808" s="9" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -44330,7 +44353,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="9" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -44344,7 +44367,7 @@
         <v>1046</v>
       </c>
       <c r="D809" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E809" s="9">
         <v>2</v>
@@ -44353,7 +44376,7 @@
         <v>1</v>
       </c>
       <c r="G809" s="53" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
@@ -44367,7 +44390,7 @@
         <v>1046</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E810" s="9">
         <v>5</v>
@@ -44376,7 +44399,7 @@
         <v>1</v>
       </c>
       <c r="G810" s="9" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.2">
@@ -44390,7 +44413,7 @@
         <v>1046</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E811" s="9">
         <v>5</v>
@@ -44399,7 +44422,7 @@
         <v>1</v>
       </c>
       <c r="G811" s="53" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -44436,7 +44459,7 @@
         <v>1046</v>
       </c>
       <c r="D813" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E813" s="9">
         <v>5</v>
@@ -44445,7 +44468,7 @@
         <v>1</v>
       </c>
       <c r="G813" s="9" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
@@ -44468,7 +44491,7 @@
         <v>1</v>
       </c>
       <c r="G814" s="10" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.2">
@@ -44491,7 +44514,7 @@
         <v>1</v>
       </c>
       <c r="G815" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.2">
@@ -44514,7 +44537,7 @@
         <v>1</v>
       </c>
       <c r="G816" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.2">
@@ -44528,7 +44551,7 @@
         <v>1046</v>
       </c>
       <c r="D817" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E817" s="9">
         <v>5</v>
@@ -44537,7 +44560,7 @@
         <v>1</v>
       </c>
       <c r="G817" s="9" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="818" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -44548,19 +44571,19 @@
         <v>324</v>
       </c>
       <c r="C818" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D818" s="10" t="s">
         <v>1746</v>
       </c>
-      <c r="D818" s="10" t="s">
+      <c r="E818" s="8">
+        <v>2</v>
+      </c>
+      <c r="F818" s="8">
+        <v>1</v>
+      </c>
+      <c r="G818" s="10" t="s">
         <v>1747</v>
-      </c>
-      <c r="E818" s="8">
-        <v>2</v>
-      </c>
-      <c r="F818" s="8">
-        <v>1</v>
-      </c>
-      <c r="G818" s="10" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.2">
@@ -44574,7 +44597,7 @@
         <v>1046</v>
       </c>
       <c r="D819" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E819" s="8">
         <v>5</v>
@@ -44583,7 +44606,7 @@
         <v>1</v>
       </c>
       <c r="G819" s="10" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.2">
@@ -44597,7 +44620,7 @@
         <v>866</v>
       </c>
       <c r="D820" s="10" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E820" s="8">
         <v>2</v>
@@ -44620,7 +44643,7 @@
         <v>1046</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E821" s="8">
         <v>5</v>
@@ -44629,7 +44652,7 @@
         <v>2</v>
       </c>
       <c r="G821" s="10" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
@@ -44666,7 +44689,7 @@
         <v>1046</v>
       </c>
       <c r="D823" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E823" s="8">
         <v>5</v>
@@ -44675,7 +44698,7 @@
         <v>3</v>
       </c>
       <c r="G823" s="10" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
@@ -44689,7 +44712,7 @@
         <v>1046</v>
       </c>
       <c r="D824" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E824" s="9">
         <v>5</v>
@@ -44698,7 +44721,7 @@
         <v>1</v>
       </c>
       <c r="G824" s="9" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
@@ -44712,7 +44735,7 @@
         <v>1046</v>
       </c>
       <c r="D825" s="9" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E825" s="9">
         <v>2</v>
@@ -44721,7 +44744,7 @@
         <v>1</v>
       </c>
       <c r="G825" s="9" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="826" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44735,7 +44758,7 @@
         <v>1046</v>
       </c>
       <c r="D826" s="15" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E826" s="14">
         <v>2</v>
@@ -44744,7 +44767,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="15" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.2">
@@ -44758,16 +44781,16 @@
         <v>1046</v>
       </c>
       <c r="D827" s="10" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E827" s="8">
+        <v>2</v>
+      </c>
+      <c r="F827" s="8">
+        <v>2</v>
+      </c>
+      <c r="G827" s="10" t="s">
         <v>1827</v>
-      </c>
-      <c r="E827" s="8">
-        <v>2</v>
-      </c>
-      <c r="F827" s="8">
-        <v>2</v>
-      </c>
-      <c r="G827" s="10" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
@@ -44781,7 +44804,7 @@
         <v>1046</v>
       </c>
       <c r="D828" s="10" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E828" s="8">
         <v>2</v>
@@ -44790,7 +44813,7 @@
         <v>3</v>
       </c>
       <c r="G828" s="10" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
@@ -44801,10 +44824,10 @@
         <v>328</v>
       </c>
       <c r="C829" s="53" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -44813,7 +44836,7 @@
         <v>1</v>
       </c>
       <c r="G829" s="9" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -44827,7 +44850,7 @@
         <v>1046</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -44836,7 +44859,7 @@
         <v>1</v>
       </c>
       <c r="G830" s="53" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -44850,7 +44873,7 @@
         <v>898</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -44859,7 +44882,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="9" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -44873,7 +44896,7 @@
         <v>1046</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -44882,7 +44905,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="53" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -44893,7 +44916,7 @@
         <v>330</v>
       </c>
       <c r="C833" s="53" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D833" s="9">
         <v>1</v>
@@ -44905,7 +44928,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="53" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -44916,7 +44939,7 @@
         <v>330</v>
       </c>
       <c r="C834" s="53" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D834" s="9">
         <v>3</v>
@@ -44928,7 +44951,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -44942,7 +44965,7 @@
         <v>1066</v>
       </c>
       <c r="D835" s="53" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E835" s="9">
         <v>5</v>
@@ -44951,7 +44974,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -44965,7 +44988,7 @@
         <v>866</v>
       </c>
       <c r="D836" s="10" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -44974,7 +44997,7 @@
         <v>2</v>
       </c>
       <c r="G836" s="53" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -44997,7 +45020,7 @@
         <v>2</v>
       </c>
       <c r="G837" s="9" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -45020,7 +45043,7 @@
         <v>3</v>
       </c>
       <c r="G838" s="53" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -45034,7 +45057,7 @@
         <v>866</v>
       </c>
       <c r="D839" s="9" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E839" s="9">
         <v>5</v>
@@ -45043,7 +45066,7 @@
         <v>3</v>
       </c>
       <c r="G839" s="9" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -45066,7 +45089,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="53" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -45089,7 +45112,7 @@
         <v>1</v>
       </c>
       <c r="G841" s="53" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -45112,7 +45135,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="53" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -45135,7 +45158,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="53" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -45149,7 +45172,7 @@
         <v>1046</v>
       </c>
       <c r="D844" s="9" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E844" s="9">
         <v>5</v>
@@ -45158,7 +45181,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="53" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -45201,7 +45224,7 @@
         <v>1046</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E846" s="9">
         <v>2</v>
@@ -45210,7 +45233,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="9" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.2">
@@ -45253,7 +45276,7 @@
         <v>1046</v>
       </c>
       <c r="D848" s="9" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E848" s="9">
         <v>2</v>
@@ -45262,7 +45285,7 @@
         <v>1</v>
       </c>
       <c r="G848" s="9" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="849" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -45273,10 +45296,10 @@
         <v>336</v>
       </c>
       <c r="C849" s="98" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D849" s="99" t="s">
         <v>1859</v>
-      </c>
-      <c r="D849" s="99" t="s">
-        <v>1860</v>
       </c>
       <c r="E849" s="98">
         <v>5</v>
@@ -45285,7 +45308,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="99" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.2">
@@ -45299,7 +45322,7 @@
         <v>1046</v>
       </c>
       <c r="D850" s="9" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E850" s="9">
         <v>5</v>
@@ -45308,7 +45331,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="9" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="851" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45322,16 +45345,16 @@
         <v>1046</v>
       </c>
       <c r="D851" s="107" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E851" s="106">
+        <v>2</v>
+      </c>
+      <c r="F851" s="106">
+        <v>1</v>
+      </c>
+      <c r="G851" s="107" t="s">
         <v>1875</v>
-      </c>
-      <c r="E851" s="106">
-        <v>2</v>
-      </c>
-      <c r="F851" s="106">
-        <v>1</v>
-      </c>
-      <c r="G851" s="107" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="852" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45354,7 +45377,7 @@
         <v>1</v>
       </c>
       <c r="G852" s="107" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="853" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45377,7 +45400,7 @@
         <v>1</v>
       </c>
       <c r="G853" s="106" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="854" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -45391,7 +45414,7 @@
         <v>1046</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="E854" s="14">
         <v>5</v>
@@ -45400,7 +45423,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="14" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="855" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45411,40 +45434,158 @@
         <v>339</v>
       </c>
       <c r="C855" s="10" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D855" s="10" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E855" s="8">
+        <v>2</v>
+      </c>
+      <c r="F855" s="8">
+        <v>1</v>
+      </c>
+      <c r="G855" s="10" t="s">
         <v>1900</v>
       </c>
-      <c r="D855" s="10" t="s">
-        <v>1899</v>
-      </c>
-      <c r="E855" s="8">
-        <v>2</v>
-      </c>
-      <c r="F855" s="8">
-        <v>1</v>
-      </c>
-      <c r="G855" s="10" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C856" s="10"/>
-      <c r="D856" s="10"/>
-      <c r="G856" s="10"/>
-    </row>
-    <row r="857" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G857" s="10"/>
-    </row>
-    <row r="858" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G858" s="10"/>
-    </row>
-    <row r="859" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G859" s="10"/>
-    </row>
-    <row r="860" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G860" s="10"/>
-    </row>
-    <row r="861" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G861" s="10"/>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A856" s="8">
+        <v>855</v>
+      </c>
+      <c r="B856" s="9">
+        <v>340</v>
+      </c>
+      <c r="C856" s="53" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D856" s="9">
+        <v>1</v>
+      </c>
+      <c r="E856" s="9">
+        <v>3</v>
+      </c>
+      <c r="F856" s="9">
+        <v>1</v>
+      </c>
+      <c r="G856" s="10" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A857" s="8">
+        <v>856</v>
+      </c>
+      <c r="B857" s="9">
+        <v>340</v>
+      </c>
+      <c r="C857" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D857" s="15" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E857" s="8">
+        <v>5</v>
+      </c>
+      <c r="F857" s="8">
+        <v>1</v>
+      </c>
+      <c r="G857" s="10" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A858" s="8">
+        <v>857</v>
+      </c>
+      <c r="B858" s="9">
+        <v>340</v>
+      </c>
+      <c r="C858" s="53" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D858" s="9">
+        <v>9</v>
+      </c>
+      <c r="E858" s="9">
+        <v>3</v>
+      </c>
+      <c r="F858" s="9">
+        <v>2</v>
+      </c>
+      <c r="G858" s="10" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A859" s="8">
+        <v>858</v>
+      </c>
+      <c r="B859" s="9">
+        <v>340</v>
+      </c>
+      <c r="C859" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D859" s="15" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E859" s="8">
+        <v>5</v>
+      </c>
+      <c r="F859" s="8">
+        <v>2</v>
+      </c>
+      <c r="G859" s="10" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A860" s="8">
+        <v>859</v>
+      </c>
+      <c r="B860" s="14">
+        <v>340</v>
+      </c>
+      <c r="C860" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D860" s="15" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E860" s="14">
+        <v>2</v>
+      </c>
+      <c r="F860" s="14">
+        <v>3</v>
+      </c>
+      <c r="G860" s="15" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A861" s="8">
+        <v>860</v>
+      </c>
+      <c r="B861" s="14">
+        <v>340</v>
+      </c>
+      <c r="C861" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D861" s="15" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E861" s="14">
+        <v>2</v>
+      </c>
+      <c r="F861" s="14">
+        <v>4</v>
+      </c>
+      <c r="G861" s="15" t="s">
+        <v>1932</v>
+      </c>
     </row>
     <row r="862" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G862" s="10"/>
@@ -45511,7 +45652,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>898</v>
@@ -45580,13 +45721,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -45603,13 +45744,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -45618,7 +45759,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -45626,22 +45767,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>1625</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -45649,13 +45790,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -45664,7 +45805,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -45672,13 +45813,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -45687,7 +45828,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
   </sheetData>
@@ -45780,12 +45921,12 @@
         <v>866</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B8" t="s">
         <v>1036</v>

--- a/config_12.01/permission_server_config.xlsx
+++ b/config_12.01/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="1934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="1935">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8905,10 +8905,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>xy_xxl_bet_1</t>
   </si>
   <si>
@@ -9000,6 +8996,14 @@
   </si>
   <si>
     <t>xyxxl_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv9开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9806,7 +9810,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C360" sqref="C360"/>
     </sheetView>
@@ -13735,7 +13739,7 @@
         <v>1392</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C353" s="3">
         <v>226</v>
@@ -13809,10 +13813,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="27" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B360" s="27" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C360" s="3">
         <v>340</v>
@@ -14194,46 +14198,46 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="34" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>1904</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>1905</v>
       </c>
       <c r="C415" s="9"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="18" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>1906</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>1907</v>
       </c>
       <c r="C416" s="9"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="18" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>1908</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>1909</v>
       </c>
       <c r="C417" s="9"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="18" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B418" s="10" t="s">
         <v>1910</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>1911</v>
       </c>
       <c r="C418" s="9"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="18" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>1912</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>1913</v>
       </c>
       <c r="C419" s="57">
         <v>22</v>
@@ -14241,10 +14245,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="18" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B420" s="10" t="s">
         <v>1914</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>1915</v>
       </c>
       <c r="C420" s="57">
         <v>22</v>
@@ -14252,10 +14256,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="18" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B421" s="10" t="s">
         <v>1916</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>1917</v>
       </c>
       <c r="C421" s="57">
         <v>22</v>
@@ -14263,10 +14267,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="18" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B422" s="10" t="s">
         <v>1918</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>1919</v>
       </c>
       <c r="C422" s="57">
         <v>23</v>
@@ -14274,10 +14278,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="18" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B423" s="10" t="s">
         <v>1920</v>
-      </c>
-      <c r="B423" s="10" t="s">
-        <v>1921</v>
       </c>
       <c r="C423" s="9">
         <v>23</v>
@@ -14285,10 +14289,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="18" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B424" s="10" t="s">
         <v>1922</v>
-      </c>
-      <c r="B424" s="10" t="s">
-        <v>1923</v>
       </c>
       <c r="C424" s="9">
         <v>24</v>
@@ -14296,10 +14300,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="18" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B425" s="10" t="s">
         <v>1924</v>
-      </c>
-      <c r="B425" s="10" t="s">
-        <v>1925</v>
       </c>
       <c r="C425" s="9">
         <v>25</v>
@@ -14307,10 +14311,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="18" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B426" s="10" t="s">
         <v>1926</v>
-      </c>
-      <c r="B426" s="10" t="s">
-        <v>1927</v>
       </c>
       <c r="C426" s="9">
         <v>26</v>
@@ -14318,10 +14322,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="18" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B427" s="10" t="s">
         <v>1928</v>
-      </c>
-      <c r="B427" s="10" t="s">
-        <v>1929</v>
       </c>
       <c r="C427" s="9">
         <v>26</v>
@@ -25703,7 +25707,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C842" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F861" sqref="F861"/>
+      <selection pane="bottomRight" activeCell="D858" sqref="D858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45469,7 +45473,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.2">
@@ -45515,7 +45519,7 @@
         <v>2</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1455</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.2">
@@ -45584,7 +45588,7 @@
         <v>4</v>
       </c>
       <c r="G861" s="15" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="862" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45609,7 +45613,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -45819,7 +45823,7 @@
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1903</v>
+        <v>1934</v>
       </c>
       <c r="E9">
         <v>2</v>
